--- a/biology/Botanique/Gloeobotrydaceae/Gloeobotrydaceae.xlsx
+++ b/biology/Botanique/Gloeobotrydaceae/Gloeobotrydaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gloeobotrydaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Mischococcales.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Gloeobotrys, composé du préfixe gloe-, du grec γλοία / gloía, colle, (de glea, gelée) », et du suffixe grec βοτρυ / botry, «  petite grappe » ou βοτρυσ / botrys,  « grappe de raisin », en référence 
-à l'habitus de cet organisme qui forme « des thalles coloniaux à cellules sphériques ou ellipsoïdes incluses dans un mucilage »[1].
+à l'habitus de cet organisme qui forme « des thalles coloniaux à cellules sphériques ou ellipsoïdes incluses dans un mucilage ».
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,11 +585,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A. Luther, en 1899, décrit ainsi le genre Chlorosaccus 
-« Cellules végétatives en colonies gélatineuses disposées en périphérie, à fines membranes ; (on observe) 2 à plusieurs chromatophores pariétaux (contre la paroi), en forme de disque, jaune-vert, avec des pyrénoïdes et dépourvus d'amidon. Un noyau central unique. Lors de leur division longitudinale simultanée, quatre cellules filles apparaissent, disposées de manière disjointe. La multiplication est « agamique » (sans gamètes) via des zoospores issues de cellules végétatives inchangées, monosymétriques, à deux cils, l'un long et allongé, l'autre plus court, généralement en position opposée, formant un thalle germinatif semblable au thalle maternel. Les cellules persistantes sont des akinètes (non mobiles)[2]. »
+« Cellules végétatives en colonies gélatineuses disposées en périphérie, à fines membranes ; (on observe) 2 à plusieurs chromatophores pariétaux (contre la paroi), en forme de disque, jaune-vert, avec des pyrénoïdes et dépourvus d'amidon. Un noyau central unique. Lors de leur division longitudinale simultanée, quatre cellules filles apparaissent, disposées de manière disjointe. La multiplication est « agamique » (sans gamètes) via des zoospores issues de cellules végétatives inchangées, monosymétriques, à deux cils, l'un long et allongé, l'autre plus court, généralement en position opposée, formant un thalle germinatif semblable au thalle maternel. Les cellules persistantes sont des akinètes (non mobiles). »
 </t>
         </is>
       </c>
@@ -602,9 +620,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 avril 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 avril 2022) :
 Asterogloea Pascher, 1930
 Chlorosaccus Luther, 1899
 Gaumiella Bourrelly, 1948
